--- a/natmiOut/OldD4/LR-pairs_lrc2p/Gnai2-Fpr1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Gnai2-Fpr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>137.891167503392</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H2">
-        <v>137.891167503392</v>
+        <v>455.178215</v>
       </c>
       <c r="I2">
-        <v>0.2615920078918041</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J2">
-        <v>0.2615920078918041</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.63196872871467</v>
+        <v>3.945699666666667</v>
       </c>
       <c r="N2">
-        <v>3.63196872871467</v>
+        <v>11.837099</v>
       </c>
       <c r="O2">
-        <v>0.5920383991811387</v>
+        <v>0.5217739053606055</v>
       </c>
       <c r="P2">
-        <v>0.5920383991811387</v>
+        <v>0.5347497223273059</v>
       </c>
       <c r="Q2">
-        <v>500.8164083382763</v>
+        <v>598.6655103998095</v>
       </c>
       <c r="R2">
-        <v>500.8164083382763</v>
+        <v>5387.989593598285</v>
       </c>
       <c r="S2">
-        <v>0.1548725135908435</v>
+        <v>0.1409175374863879</v>
       </c>
       <c r="T2">
-        <v>0.1548725135908435</v>
+        <v>0.1488404462295216</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>137.891167503392</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H3">
-        <v>137.891167503392</v>
+        <v>455.178215</v>
       </c>
       <c r="I3">
-        <v>0.2615920078918041</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J3">
-        <v>0.2615920078918041</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>2.50271566631465</v>
+        <v>0.179436</v>
       </c>
       <c r="N3">
-        <v>2.50271566631465</v>
+        <v>0.538308</v>
       </c>
       <c r="O3">
-        <v>0.4079616008188615</v>
+        <v>0.02372837022372263</v>
       </c>
       <c r="P3">
-        <v>0.4079616008188615</v>
+        <v>0.02431846295503378</v>
       </c>
       <c r="Q3">
-        <v>345.1023851571567</v>
+        <v>27.22511939558001</v>
       </c>
       <c r="R3">
-        <v>345.1023851571567</v>
+        <v>245.02607456022</v>
       </c>
       <c r="S3">
-        <v>0.1067194943009607</v>
+        <v>0.006408414576005702</v>
       </c>
       <c r="T3">
-        <v>0.1067194943009607</v>
+        <v>0.006768719508802057</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>75.6052636891754</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H4">
-        <v>75.6052636891754</v>
+        <v>455.178215</v>
       </c>
       <c r="I4">
-        <v>0.1434300187149709</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J4">
-        <v>0.1434300187149709</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.63196872871467</v>
+        <v>2.886464333333334</v>
       </c>
       <c r="N4">
-        <v>3.63196872871467</v>
+        <v>8.659393000000001</v>
       </c>
       <c r="O4">
-        <v>0.5920383991811387</v>
+        <v>0.3817020795097085</v>
       </c>
       <c r="P4">
-        <v>0.5920383991811387</v>
+        <v>0.3911944981006763</v>
       </c>
       <c r="Q4">
-        <v>274.5959534453118</v>
+        <v>437.9518943026107</v>
       </c>
       <c r="R4">
-        <v>274.5959534453118</v>
+        <v>3941.567048723496</v>
       </c>
       <c r="S4">
-        <v>0.08491607867453214</v>
+        <v>0.1030877867699565</v>
       </c>
       <c r="T4">
-        <v>0.08491607867453214</v>
+        <v>0.1088837660474746</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>75.6052636891754</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H5">
-        <v>75.6052636891754</v>
+        <v>455.178215</v>
       </c>
       <c r="I5">
-        <v>0.1434300187149709</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J5">
-        <v>0.1434300187149709</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>2.50271566631465</v>
+        <v>0.5504869999999999</v>
       </c>
       <c r="N5">
-        <v>2.50271566631465</v>
+        <v>1.100974</v>
       </c>
       <c r="O5">
-        <v>0.4079616008188615</v>
+        <v>0.0727956449059631</v>
       </c>
       <c r="P5">
-        <v>0.4079616008188615</v>
+        <v>0.04973731661698388</v>
       </c>
       <c r="Q5">
-        <v>189.2184778907494</v>
+        <v>83.52323001356834</v>
       </c>
       <c r="R5">
-        <v>189.2184778907494</v>
+        <v>501.13938008141</v>
       </c>
       <c r="S5">
-        <v>0.0585139400404388</v>
+        <v>0.0196602070638091</v>
       </c>
       <c r="T5">
-        <v>0.0585139400404388</v>
+        <v>0.01384371808051122</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -782,181 +782,181 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>113.916721093036</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H6">
-        <v>113.916721093036</v>
+        <v>246.746613</v>
       </c>
       <c r="I6">
-        <v>0.2161103161480222</v>
+        <v>0.146403824289839</v>
       </c>
       <c r="J6">
-        <v>0.2161103161480222</v>
+        <v>0.150882936320401</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.63196872871467</v>
+        <v>3.945699666666667</v>
       </c>
       <c r="N6">
-        <v>3.63196872871467</v>
+        <v>11.837099</v>
       </c>
       <c r="O6">
-        <v>0.5920383991811387</v>
+        <v>0.5217739053606055</v>
       </c>
       <c r="P6">
-        <v>0.5920383991811387</v>
+        <v>0.5347497223273059</v>
       </c>
       <c r="Q6">
-        <v>413.7419686876176</v>
+        <v>324.5293428884096</v>
       </c>
       <c r="R6">
-        <v>413.7419686876176</v>
+        <v>2920.764085995687</v>
       </c>
       <c r="S6">
-        <v>0.1279456056188048</v>
+        <v>0.07638969515943717</v>
       </c>
       <c r="T6">
-        <v>0.1279456056188048</v>
+        <v>0.08068460830126301</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>113.916721093036</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H7">
-        <v>113.916721093036</v>
+        <v>246.746613</v>
       </c>
       <c r="I7">
-        <v>0.2161103161480222</v>
+        <v>0.146403824289839</v>
       </c>
       <c r="J7">
-        <v>0.2161103161480222</v>
+        <v>0.150882936320401</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>2.50271566631465</v>
+        <v>0.179436</v>
       </c>
       <c r="N7">
-        <v>2.50271566631465</v>
+        <v>0.538308</v>
       </c>
       <c r="O7">
-        <v>0.4079616008188615</v>
+        <v>0.02372837022372263</v>
       </c>
       <c r="P7">
-        <v>0.4079616008188615</v>
+        <v>0.02431846295503378</v>
       </c>
       <c r="Q7">
-        <v>285.1011625347377</v>
+        <v>14.758408416756</v>
       </c>
       <c r="R7">
-        <v>285.1011625347377</v>
+        <v>132.825675750804</v>
       </c>
       <c r="S7">
-        <v>0.08816471052921737</v>
+        <v>0.003473924144918135</v>
       </c>
       <c r="T7">
-        <v>0.08816471052921737</v>
+        <v>0.003669241097454392</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>150.902023922951</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H8">
-        <v>150.902023922951</v>
+        <v>246.746613</v>
       </c>
       <c r="I8">
-        <v>0.2862747784913111</v>
+        <v>0.146403824289839</v>
       </c>
       <c r="J8">
-        <v>0.2862747784913111</v>
+        <v>0.150882936320401</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.63196872871467</v>
+        <v>2.886464333333334</v>
       </c>
       <c r="N8">
-        <v>3.63196872871467</v>
+        <v>8.659393000000001</v>
       </c>
       <c r="O8">
-        <v>0.5920383991811387</v>
+        <v>0.3817020795097085</v>
       </c>
       <c r="P8">
-        <v>0.5920383991811387</v>
+        <v>0.3911944981006763</v>
       </c>
       <c r="Q8">
-        <v>548.0714319879111</v>
+        <v>237.4084325984344</v>
       </c>
       <c r="R8">
-        <v>548.0714319879111</v>
+        <v>2136.675893385909</v>
       </c>
       <c r="S8">
-        <v>0.1694856615839309</v>
+        <v>0.05588264417960551</v>
       </c>
       <c r="T8">
-        <v>0.1694856615839309</v>
+        <v>0.05902457454581556</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>150.902023922951</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H9">
-        <v>150.902023922951</v>
+        <v>246.746613</v>
       </c>
       <c r="I9">
-        <v>0.2862747784913111</v>
+        <v>0.146403824289839</v>
       </c>
       <c r="J9">
-        <v>0.2862747784913111</v>
+        <v>0.150882936320401</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M9">
-        <v>2.50271566631465</v>
+        <v>0.5504869999999999</v>
       </c>
       <c r="N9">
-        <v>2.50271566631465</v>
+        <v>1.100974</v>
       </c>
       <c r="O9">
-        <v>0.4079616008188615</v>
+        <v>0.0727956449059631</v>
       </c>
       <c r="P9">
-        <v>0.4079616008188615</v>
+        <v>0.04973731661698388</v>
       </c>
       <c r="Q9">
-        <v>377.6648593505575</v>
+        <v>45.27693425017699</v>
       </c>
       <c r="R9">
-        <v>377.6648593505575</v>
+        <v>271.661605501062</v>
       </c>
       <c r="S9">
-        <v>0.1167891169073802</v>
+        <v>0.01065756080587813</v>
       </c>
       <c r="T9">
-        <v>0.1167891169073802</v>
+        <v>0.007504512375868</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1030,114 +1030,734 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>48.8078372759574</v>
+        <v>123.444321</v>
       </c>
       <c r="H10">
-        <v>48.8078372759574</v>
+        <v>370.332963</v>
       </c>
       <c r="I10">
-        <v>0.09259287875389165</v>
+        <v>0.2197321429647646</v>
       </c>
       <c r="J10">
-        <v>0.09259287875389165</v>
+        <v>0.2264546783208506</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.63196872871467</v>
+        <v>3.945699666666667</v>
       </c>
       <c r="N10">
-        <v>3.63196872871467</v>
+        <v>11.837099</v>
       </c>
       <c r="O10">
-        <v>0.5920383991811387</v>
+        <v>0.5217739053606055</v>
       </c>
       <c r="P10">
-        <v>0.5920383991811387</v>
+        <v>0.5347497223273059</v>
       </c>
       <c r="Q10">
-        <v>177.2685387024715</v>
+        <v>487.074216221593</v>
       </c>
       <c r="R10">
-        <v>177.2685387024715</v>
+        <v>4383.667945994337</v>
       </c>
       <c r="S10">
-        <v>0.05481853971302728</v>
+        <v>0.1146504983679801</v>
       </c>
       <c r="T10">
-        <v>0.05481853971302728</v>
+        <v>0.1210965763517942</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>123.444321</v>
+      </c>
+      <c r="H11">
+        <v>370.332963</v>
+      </c>
+      <c r="I11">
+        <v>0.2197321429647646</v>
+      </c>
+      <c r="J11">
+        <v>0.2264546783208506</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.179436</v>
+      </c>
+      <c r="N11">
+        <v>0.538308</v>
+      </c>
+      <c r="O11">
+        <v>0.02372837022372263</v>
+      </c>
+      <c r="P11">
+        <v>0.02431846295503378</v>
+      </c>
+      <c r="Q11">
+        <v>22.150355182956</v>
+      </c>
+      <c r="R11">
+        <v>199.353196646604</v>
+      </c>
+      <c r="S11">
+        <v>0.005213885638319884</v>
+      </c>
+      <c r="T11">
+        <v>0.005507029705739696</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>123.444321</v>
+      </c>
+      <c r="H12">
+        <v>370.332963</v>
+      </c>
+      <c r="I12">
+        <v>0.2197321429647646</v>
+      </c>
+      <c r="J12">
+        <v>0.2264546783208506</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.886464333333334</v>
+      </c>
+      <c r="N12">
+        <v>8.659393000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.3817020795097085</v>
+      </c>
+      <c r="P12">
+        <v>0.3911944981006763</v>
+      </c>
+      <c r="Q12">
+        <v>356.3176297190511</v>
+      </c>
+      <c r="R12">
+        <v>3206.85866747146</v>
+      </c>
+      <c r="S12">
+        <v>0.08387221590477521</v>
+      </c>
+      <c r="T12">
+        <v>0.08858782422827526</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>123.444321</v>
+      </c>
+      <c r="H13">
+        <v>370.332963</v>
+      </c>
+      <c r="I13">
+        <v>0.2197321429647646</v>
+      </c>
+      <c r="J13">
+        <v>0.2264546783208506</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.5</v>
+      </c>
+      <c r="M13">
+        <v>0.5504869999999999</v>
+      </c>
+      <c r="N13">
+        <v>1.100974</v>
+      </c>
+      <c r="O13">
+        <v>0.0727956449059631</v>
+      </c>
+      <c r="P13">
+        <v>0.04973731661698388</v>
+      </c>
+      <c r="Q13">
+        <v>67.95449393432699</v>
+      </c>
+      <c r="R13">
+        <v>407.7269636059619</v>
+      </c>
+      <c r="S13">
+        <v>0.01599554305368932</v>
+      </c>
+      <c r="T13">
+        <v>0.01126324803504138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>48.8078372759574</v>
-      </c>
-      <c r="H11">
-        <v>48.8078372759574</v>
-      </c>
-      <c r="I11">
-        <v>0.09259287875389165</v>
-      </c>
-      <c r="J11">
-        <v>0.09259287875389165</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>2.50271566631465</v>
-      </c>
-      <c r="N11">
-        <v>2.50271566631465</v>
-      </c>
-      <c r="O11">
-        <v>0.4079616008188615</v>
-      </c>
-      <c r="P11">
-        <v>0.4079616008188615</v>
-      </c>
-      <c r="Q11">
-        <v>122.1521389894747</v>
-      </c>
-      <c r="R11">
-        <v>122.1521389894747</v>
-      </c>
-      <c r="S11">
-        <v>0.03777433904086439</v>
-      </c>
-      <c r="T11">
-        <v>0.03777433904086439</v>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>154.3429766666667</v>
+      </c>
+      <c r="H14">
+        <v>463.02893</v>
+      </c>
+      <c r="I14">
+        <v>0.2747320633285943</v>
+      </c>
+      <c r="J14">
+        <v>0.2831372788071194</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.945699666666667</v>
+      </c>
+      <c r="N14">
+        <v>11.837099</v>
+      </c>
+      <c r="O14">
+        <v>0.5217739053606055</v>
+      </c>
+      <c r="P14">
+        <v>0.5347497223273059</v>
+      </c>
+      <c r="Q14">
+        <v>608.9910315860077</v>
+      </c>
+      <c r="R14">
+        <v>5480.91928427407</v>
+      </c>
+      <c r="S14">
+        <v>0.1433480216107378</v>
+      </c>
+      <c r="T14">
+        <v>0.1514075812226161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>154.3429766666667</v>
+      </c>
+      <c r="H15">
+        <v>463.02893</v>
+      </c>
+      <c r="I15">
+        <v>0.2747320633285943</v>
+      </c>
+      <c r="J15">
+        <v>0.2831372788071194</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.179436</v>
+      </c>
+      <c r="N15">
+        <v>0.538308</v>
+      </c>
+      <c r="O15">
+        <v>0.02372837022372263</v>
+      </c>
+      <c r="P15">
+        <v>0.02431846295503378</v>
+      </c>
+      <c r="Q15">
+        <v>27.69468636116</v>
+      </c>
+      <c r="R15">
+        <v>249.25217725044</v>
+      </c>
+      <c r="S15">
+        <v>0.006518944110988095</v>
+      </c>
+      <c r="T15">
+        <v>0.006885463425860005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>154.3429766666667</v>
+      </c>
+      <c r="H16">
+        <v>463.02893</v>
+      </c>
+      <c r="I16">
+        <v>0.2747320633285943</v>
+      </c>
+      <c r="J16">
+        <v>0.2831372788071194</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.886464333333334</v>
+      </c>
+      <c r="N16">
+        <v>8.659393000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.3817020795097085</v>
+      </c>
+      <c r="P16">
+        <v>0.3911944981006763</v>
+      </c>
+      <c r="Q16">
+        <v>445.5054972488323</v>
+      </c>
+      <c r="R16">
+        <v>4009.549475239491</v>
+      </c>
+      <c r="S16">
+        <v>0.1048657998805174</v>
+      </c>
+      <c r="T16">
+        <v>0.1107617456765423</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>154.3429766666667</v>
+      </c>
+      <c r="H17">
+        <v>463.02893</v>
+      </c>
+      <c r="I17">
+        <v>0.2747320633285943</v>
+      </c>
+      <c r="J17">
+        <v>0.2831372788071194</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>0.5504869999999999</v>
+      </c>
+      <c r="N17">
+        <v>1.100974</v>
+      </c>
+      <c r="O17">
+        <v>0.0727956449059631</v>
+      </c>
+      <c r="P17">
+        <v>0.04973731661698388</v>
+      </c>
+      <c r="Q17">
+        <v>84.96380219630332</v>
+      </c>
+      <c r="R17">
+        <v>509.7828131778199</v>
+      </c>
+      <c r="S17">
+        <v>0.01999929772635092</v>
+      </c>
+      <c r="T17">
+        <v>0.01408248848210094</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>50.0323125</v>
+      </c>
+      <c r="H18">
+        <v>100.064625</v>
+      </c>
+      <c r="I18">
+        <v>0.08905802352064279</v>
+      </c>
+      <c r="J18">
+        <v>0.06118845668531954</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>3.945699666666667</v>
+      </c>
+      <c r="N18">
+        <v>11.837099</v>
+      </c>
+      <c r="O18">
+        <v>0.5217739053606055</v>
+      </c>
+      <c r="P18">
+        <v>0.5347497223273059</v>
+      </c>
+      <c r="Q18">
+        <v>197.4124787538125</v>
+      </c>
+      <c r="R18">
+        <v>1184.474872522875</v>
+      </c>
+      <c r="S18">
+        <v>0.04646815273606245</v>
+      </c>
+      <c r="T18">
+        <v>0.032720510222111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>50.0323125</v>
+      </c>
+      <c r="H19">
+        <v>100.064625</v>
+      </c>
+      <c r="I19">
+        <v>0.08905802352064279</v>
+      </c>
+      <c r="J19">
+        <v>0.06118845668531954</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.179436</v>
+      </c>
+      <c r="N19">
+        <v>0.538308</v>
+      </c>
+      <c r="O19">
+        <v>0.02372837022372263</v>
+      </c>
+      <c r="P19">
+        <v>0.02431846295503378</v>
+      </c>
+      <c r="Q19">
+        <v>8.977598025750002</v>
+      </c>
+      <c r="R19">
+        <v>53.8655881545</v>
+      </c>
+      <c r="S19">
+        <v>0.00211320175349081</v>
+      </c>
+      <c r="T19">
+        <v>0.001488009217177632</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>50.0323125</v>
+      </c>
+      <c r="H20">
+        <v>100.064625</v>
+      </c>
+      <c r="I20">
+        <v>0.08905802352064279</v>
+      </c>
+      <c r="J20">
+        <v>0.06118845668531954</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>2.886464333333334</v>
+      </c>
+      <c r="N20">
+        <v>8.659393000000001</v>
+      </c>
+      <c r="O20">
+        <v>0.3817020795097085</v>
+      </c>
+      <c r="P20">
+        <v>0.3911944981006763</v>
+      </c>
+      <c r="Q20">
+        <v>144.4164855454376</v>
+      </c>
+      <c r="R20">
+        <v>866.4989132726251</v>
+      </c>
+      <c r="S20">
+        <v>0.03399363277485389</v>
+      </c>
+      <c r="T20">
+        <v>0.02393658760256855</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>50.0323125</v>
+      </c>
+      <c r="H21">
+        <v>100.064625</v>
+      </c>
+      <c r="I21">
+        <v>0.08905802352064279</v>
+      </c>
+      <c r="J21">
+        <v>0.06118845668531954</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.5504869999999999</v>
+      </c>
+      <c r="N21">
+        <v>1.100974</v>
+      </c>
+      <c r="O21">
+        <v>0.0727956449059631</v>
+      </c>
+      <c r="P21">
+        <v>0.04973731661698388</v>
+      </c>
+      <c r="Q21">
+        <v>27.5421376111875</v>
+      </c>
+      <c r="R21">
+        <v>110.16855044475</v>
+      </c>
+      <c r="S21">
+        <v>0.006483036256235622</v>
+      </c>
+      <c r="T21">
+        <v>0.003043349643462342</v>
       </c>
     </row>
   </sheetData>
